--- a/resources/record-layout-mbsf-cc.xlsx
+++ b/resources/record-layout-mbsf-cc.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA4736E-E554-EA4B-86AB-FB503850282D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CA0AF8-53D8-1445-ACBE-5FAD46864132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="1940" windowWidth="23660" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7640" yWindow="3120" windowWidth="27600" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MBSF_CC" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="241">
   <si>
     <t>BENE_ID</t>
   </si>
@@ -792,23 +792,23 @@
     <t>Version — February 2022</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>M</t>
+    <t xml:space="preserve">ONLY first or second DX on the claim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">any DX on the claim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONLY principal DX on the claim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXCLUSION </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -981,8 +981,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF565656"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1193,8 +1199,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1228,15 +1240,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1422,25 +1425,25 @@
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1486,28 +1489,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="35" borderId="2" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1522,11 +1519,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1537,24 +1531,14 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="25" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="25" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1938,7 +1922,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1949,57 +1933,56 @@
     <col min="3" max="3" width="66.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="16" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="10" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-    </row>
-    <row r="2" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-    </row>
-    <row r="3" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+    </row>
+    <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-    </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
         <v>183</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="22" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
@@ -2008,16 +1991,15 @@
       <c r="C5" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="23">
+      <c r="D5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="21">
         <v>15</v>
       </c>
       <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2033,29 +2015,27 @@
       <c r="E6" s="11">
         <v>4</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="29">
+      <c r="D7" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27">
         <v>3</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -2071,12 +2051,11 @@
       <c r="E8" s="13">
         <v>1</v>
       </c>
-      <c r="F8" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F8" s="34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -2092,10 +2071,9 @@
       <c r="E9" s="13">
         <v>1</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -2111,10 +2089,9 @@
       <c r="E10" s="15">
         <v>8</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -2130,12 +2107,11 @@
       <c r="E11" s="13">
         <v>1</v>
       </c>
-      <c r="F11" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F11" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -2151,10 +2127,9 @@
       <c r="E12" s="13">
         <v>1</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -2170,10 +2145,9 @@
       <c r="E13" s="15">
         <v>8</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -2189,12 +2163,11 @@
       <c r="E14" s="13">
         <v>1</v>
       </c>
-      <c r="F14" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F14" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2210,10 +2183,9 @@
       <c r="E15" s="13">
         <v>1</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -2229,10 +2201,9 @@
       <c r="E16" s="15">
         <v>8</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -2248,12 +2219,11 @@
       <c r="E17" s="13">
         <v>1</v>
       </c>
-      <c r="F17" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F17" s="34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -2269,10 +2239,9 @@
       <c r="E18" s="13">
         <v>1</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -2288,10 +2257,9 @@
       <c r="E19" s="15">
         <v>8</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -2307,12 +2275,11 @@
       <c r="E20" s="13">
         <v>1</v>
       </c>
-      <c r="F20" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F20" s="34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2328,10 +2295,9 @@
       <c r="E21" s="13">
         <v>1</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="20"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -2347,10 +2313,9 @@
       <c r="E22" s="15">
         <v>8</v>
       </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -2366,12 +2331,11 @@
       <c r="E23" s="13">
         <v>1</v>
       </c>
-      <c r="F23" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F23" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -2387,10 +2351,9 @@
       <c r="E24" s="13">
         <v>1</v>
       </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -2406,10 +2369,9 @@
       <c r="E25" s="15">
         <v>8</v>
       </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -2425,12 +2387,11 @@
       <c r="E26" s="13">
         <v>1</v>
       </c>
-      <c r="F26" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F26" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
@@ -2446,10 +2407,9 @@
       <c r="E27" s="13">
         <v>1</v>
       </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -2465,10 +2425,9 @@
       <c r="E28" s="15">
         <v>8</v>
       </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="18"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -2484,12 +2443,11 @@
       <c r="E29" s="13">
         <v>1</v>
       </c>
-      <c r="F29" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F29" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -2505,10 +2463,9 @@
       <c r="E30" s="13">
         <v>1</v>
       </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
@@ -2524,10 +2481,9 @@
       <c r="E31" s="15">
         <v>8</v>
       </c>
-      <c r="F31" s="36"/>
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -2543,12 +2499,11 @@
       <c r="E32" s="13">
         <v>1</v>
       </c>
-      <c r="F32" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F32" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
@@ -2564,10 +2519,9 @@
       <c r="E33" s="13">
         <v>1</v>
       </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -2583,10 +2537,9 @@
       <c r="E34" s="15">
         <v>8</v>
       </c>
-      <c r="F34" s="36"/>
-      <c r="G34" s="18"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
@@ -2602,12 +2555,11 @@
       <c r="E35" s="13">
         <v>1</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
@@ -2623,10 +2575,9 @@
       <c r="E36" s="13">
         <v>1</v>
       </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="20"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
@@ -2642,10 +2593,9 @@
       <c r="E37" s="15">
         <v>8</v>
       </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="18"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
@@ -2661,12 +2611,11 @@
       <c r="E38" s="13">
         <v>1</v>
       </c>
-      <c r="F38" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="G38" s="20"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F38" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
@@ -2682,10 +2631,9 @@
       <c r="E39" s="13">
         <v>1</v>
       </c>
-      <c r="F39" s="37"/>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
@@ -2701,10 +2649,9 @@
       <c r="E40" s="15">
         <v>8</v>
       </c>
-      <c r="F40" s="37"/>
-      <c r="G40" s="18"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
@@ -2720,12 +2667,11 @@
       <c r="E41" s="13">
         <v>1</v>
       </c>
-      <c r="F41" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="G41" s="20"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F41" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -2741,10 +2687,9 @@
       <c r="E42" s="13">
         <v>1</v>
       </c>
-      <c r="F42" s="37"/>
-      <c r="G42" s="20"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
@@ -2760,10 +2705,9 @@
       <c r="E43" s="15">
         <v>8</v>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="18"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
@@ -2779,12 +2723,11 @@
       <c r="E44" s="13">
         <v>1</v>
       </c>
-      <c r="F44" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="G44" s="20"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F44" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
@@ -2800,10 +2743,9 @@
       <c r="E45" s="13">
         <v>1</v>
       </c>
-      <c r="F45" s="37"/>
-      <c r="G45" s="20"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F45" s="18"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
@@ -2819,10 +2761,9 @@
       <c r="E46" s="15">
         <v>8</v>
       </c>
-      <c r="F46" s="37"/>
-      <c r="G46" s="18"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F46" s="17"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
@@ -2838,12 +2779,11 @@
       <c r="E47" s="13">
         <v>1</v>
       </c>
-      <c r="F47" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="G47" s="20"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F47" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
@@ -2859,10 +2799,9 @@
       <c r="E48" s="13">
         <v>1</v>
       </c>
-      <c r="F48" s="37"/>
-      <c r="G48" s="20"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F48" s="18"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
@@ -2878,10 +2817,9 @@
       <c r="E49" s="15">
         <v>8</v>
       </c>
-      <c r="F49" s="37"/>
-      <c r="G49" s="18"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F49" s="17"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>48</v>
       </c>
@@ -2897,12 +2835,11 @@
       <c r="E50" s="13">
         <v>1</v>
       </c>
-      <c r="F50" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="G50" s="20"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F50" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>49</v>
       </c>
@@ -2918,10 +2855,9 @@
       <c r="E51" s="13">
         <v>1</v>
       </c>
-      <c r="F51" s="37"/>
-      <c r="G51" s="20"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F51" s="18"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>50</v>
       </c>
@@ -2937,10 +2873,9 @@
       <c r="E52" s="15">
         <v>8</v>
       </c>
-      <c r="F52" s="37"/>
-      <c r="G52" s="18"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F52" s="17"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>51</v>
       </c>
@@ -2956,12 +2891,11 @@
       <c r="E53" s="13">
         <v>1</v>
       </c>
-      <c r="F53" s="38" t="s">
+      <c r="F53" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="G53" s="20"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>52</v>
       </c>
@@ -2977,10 +2911,11 @@
       <c r="E54" s="13">
         <v>1</v>
       </c>
-      <c r="F54" s="38"/>
-      <c r="G54" s="20"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F54" s="34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>53</v>
       </c>
@@ -2996,10 +2931,9 @@
       <c r="E55" s="15">
         <v>8</v>
       </c>
-      <c r="F55" s="38"/>
-      <c r="G55" s="18"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F55" s="17"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
@@ -3015,12 +2949,11 @@
       <c r="E56" s="13">
         <v>1</v>
       </c>
-      <c r="F56" s="38" t="s">
+      <c r="F56" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="G56" s="20"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
@@ -3036,10 +2969,9 @@
       <c r="E57" s="13">
         <v>1</v>
       </c>
-      <c r="F57" s="38"/>
-      <c r="G57" s="20"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
@@ -3055,10 +2987,9 @@
       <c r="E58" s="15">
         <v>8</v>
       </c>
-      <c r="F58" s="38"/>
-      <c r="G58" s="18"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F58" s="17"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
@@ -3074,12 +3005,11 @@
       <c r="E59" s="13">
         <v>1</v>
       </c>
-      <c r="F59" s="38" t="s">
+      <c r="F59" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="G59" s="20"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>58</v>
       </c>
@@ -3095,10 +3025,9 @@
       <c r="E60" s="15">
         <v>1</v>
       </c>
-      <c r="F60" s="38"/>
-      <c r="G60" s="18"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F60" s="17"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>59</v>
       </c>
@@ -3114,10 +3043,9 @@
       <c r="E61" s="15">
         <v>8</v>
       </c>
-      <c r="F61" s="38"/>
-      <c r="G61" s="18"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F61" s="17"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
@@ -3133,12 +3061,11 @@
       <c r="E62" s="13">
         <v>1</v>
       </c>
-      <c r="F62" s="38" t="s">
+      <c r="F62" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="G62" s="20"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>61</v>
       </c>
@@ -3154,10 +3081,9 @@
       <c r="E63" s="13">
         <v>1</v>
       </c>
-      <c r="F63" s="38"/>
-      <c r="G63" s="20"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F63" s="18"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
@@ -3173,10 +3099,9 @@
       <c r="E64" s="15">
         <v>8</v>
       </c>
-      <c r="F64" s="38"/>
-      <c r="G64" s="18"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F64" s="17"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>63</v>
       </c>
@@ -3192,12 +3117,11 @@
       <c r="E65" s="13">
         <v>1</v>
       </c>
-      <c r="F65" s="38" t="s">
+      <c r="F65" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="G65" s="20"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>64</v>
       </c>
@@ -3213,10 +3137,9 @@
       <c r="E66" s="13">
         <v>1</v>
       </c>
-      <c r="F66" s="38"/>
-      <c r="G66" s="20"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F66" s="18"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>65</v>
       </c>
@@ -3232,10 +3155,9 @@
       <c r="E67" s="15">
         <v>8</v>
       </c>
-      <c r="F67" s="38"/>
-      <c r="G67" s="18"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F67" s="17"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>66</v>
       </c>
@@ -3251,12 +3173,11 @@
       <c r="E68" s="13">
         <v>1</v>
       </c>
-      <c r="F68" s="38" t="s">
+      <c r="F68" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="G68" s="20"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>67</v>
       </c>
@@ -3272,10 +3193,9 @@
       <c r="E69" s="13">
         <v>1</v>
       </c>
-      <c r="F69" s="38"/>
-      <c r="G69" s="20"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F69" s="18"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>68</v>
       </c>
@@ -3291,10 +3211,9 @@
       <c r="E70" s="13">
         <v>8</v>
       </c>
-      <c r="F70" s="38"/>
-      <c r="G70" s="20"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F70" s="18"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>69</v>
       </c>
@@ -3310,12 +3229,11 @@
       <c r="E71" s="13">
         <v>1</v>
       </c>
-      <c r="F71" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="G71" s="20"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F71" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>70</v>
       </c>
@@ -3331,10 +3249,9 @@
       <c r="E72" s="13">
         <v>1</v>
       </c>
-      <c r="F72" s="39"/>
-      <c r="G72" s="20"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F72" s="18"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>71</v>
       </c>
@@ -3350,10 +3267,9 @@
       <c r="E73" s="15">
         <v>8</v>
       </c>
-      <c r="F73" s="39"/>
-      <c r="G73" s="18"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F73" s="17"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>72</v>
       </c>
@@ -3369,12 +3285,11 @@
       <c r="E74" s="13">
         <v>1</v>
       </c>
-      <c r="F74" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="G74" s="20"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F74" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>73</v>
       </c>
@@ -3390,10 +3305,9 @@
       <c r="E75" s="13">
         <v>1</v>
       </c>
-      <c r="F75" s="39"/>
-      <c r="G75" s="20"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F75" s="18"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>74</v>
       </c>
@@ -3409,10 +3323,9 @@
       <c r="E76" s="15">
         <v>8</v>
       </c>
-      <c r="F76" s="39"/>
-      <c r="G76" s="18"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F76" s="17"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>75</v>
       </c>
@@ -3428,12 +3341,11 @@
       <c r="E77" s="13">
         <v>1</v>
       </c>
-      <c r="F77" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="G77" s="20"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F77" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>76</v>
       </c>
@@ -3449,10 +3361,9 @@
       <c r="E78" s="13">
         <v>1</v>
       </c>
-      <c r="F78" s="39"/>
-      <c r="G78" s="20"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F78" s="18"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>77</v>
       </c>
@@ -3468,10 +3379,9 @@
       <c r="E79" s="15">
         <v>8</v>
       </c>
-      <c r="F79" s="39"/>
-      <c r="G79" s="18"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F79" s="17"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>78</v>
       </c>
@@ -3487,12 +3397,11 @@
       <c r="E80" s="13">
         <v>1</v>
       </c>
-      <c r="F80" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="G80" s="20"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F80" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>79</v>
       </c>
@@ -3508,10 +3417,11 @@
       <c r="E81" s="13">
         <v>1</v>
       </c>
-      <c r="F81" s="39"/>
-      <c r="G81" s="20"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F81" s="34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>80</v>
       </c>
@@ -3527,10 +3437,9 @@
       <c r="E82" s="15">
         <v>8</v>
       </c>
-      <c r="F82" s="39"/>
-      <c r="G82" s="18"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F82" s="17"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>81</v>
       </c>
@@ -3546,12 +3455,11 @@
       <c r="E83" s="13">
         <v>1</v>
       </c>
-      <c r="F83" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="G83" s="20"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F83" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>82</v>
       </c>
@@ -3567,10 +3475,9 @@
       <c r="E84" s="13">
         <v>1</v>
       </c>
-      <c r="F84" s="39"/>
-      <c r="G84" s="20"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F84" s="18"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>83</v>
       </c>
@@ -3586,10 +3493,9 @@
       <c r="E85" s="15">
         <v>8</v>
       </c>
-      <c r="F85" s="39"/>
-      <c r="G85" s="18"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F85" s="17"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>84</v>
       </c>
@@ -3605,12 +3511,11 @@
       <c r="E86" s="13">
         <v>1</v>
       </c>
-      <c r="F86" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="G86" s="20"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F86" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>85</v>
       </c>
@@ -3626,10 +3531,9 @@
       <c r="E87" s="13">
         <v>1</v>
       </c>
-      <c r="F87" s="39"/>
-      <c r="G87" s="20"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F87" s="18"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>86</v>
       </c>
@@ -3645,15 +3549,14 @@
       <c r="E88" s="15">
         <v>8</v>
       </c>
-      <c r="F88" s="39"/>
-      <c r="G88" s="18"/>
-    </row>
-    <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="F88" s="17"/>
+    </row>
+    <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>187</v>
       </c>
